--- a/Document/查理项目配置单.xlsx
+++ b/Document/查理项目配置单.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE16C6E-07BE-4CF4-A841-00A5296F5DE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB97F3EC-8C67-4A40-B26C-96598A9A4276}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="1140" windowWidth="10785" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>工具名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>STS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +463,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,8 +562,12 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
